--- a/AIDS/Elasticiteter.xlsx
+++ b/AIDS/Elasticiteter.xlsx
@@ -9,20 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Decil 1 " sheetId="1" r:id="rId1"/>
-    <sheet name="Ark5" sheetId="5" r:id="rId2"/>
-    <sheet name="Decil 8" sheetId="9" r:id="rId3"/>
-    <sheet name="Decil 9" sheetId="10" r:id="rId4"/>
-    <sheet name="Ark11" sheetId="11" r:id="rId5"/>
-    <sheet name="Decil 6" sheetId="8" r:id="rId6"/>
-    <sheet name="Decil 2" sheetId="6" r:id="rId7"/>
-    <sheet name="Decil 3" sheetId="2" r:id="rId8"/>
-    <sheet name="Decil 4" sheetId="7" r:id="rId9"/>
-    <sheet name="Decil 5" sheetId="3" r:id="rId10"/>
-    <sheet name="Decil 7 " sheetId="4" r:id="rId11"/>
+    <sheet name="ind_elas_deciler" sheetId="12" r:id="rId1"/>
+    <sheet name="pris_elas_deciler" sheetId="13" r:id="rId2"/>
+    <sheet name="ind_elas_varer" sheetId="14" r:id="rId3"/>
+    <sheet name="pris_elas_varer" sheetId="15" r:id="rId4"/>
+    <sheet name="Figure" sheetId="5" r:id="rId5"/>
+    <sheet name="Decil 1 " sheetId="1" r:id="rId6"/>
+    <sheet name="Decil 8" sheetId="9" r:id="rId7"/>
+    <sheet name="Decil 9" sheetId="10" r:id="rId8"/>
+    <sheet name="Decil 10" sheetId="11" r:id="rId9"/>
+    <sheet name="Decil 6" sheetId="8" r:id="rId10"/>
+    <sheet name="Decil 2" sheetId="6" r:id="rId11"/>
+    <sheet name="Decil 3" sheetId="2" r:id="rId12"/>
+    <sheet name="Decil 4" sheetId="7" r:id="rId13"/>
+    <sheet name="Decil 5" sheetId="3" r:id="rId14"/>
+    <sheet name="Decil 7 " sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="45">
   <si>
     <t>Demand</t>
   </si>
@@ -114,9 +118,6 @@
     <t>Priselasticiteter</t>
   </si>
   <si>
-    <t>Indkomstelasticiterer</t>
-  </si>
-  <si>
     <t>1. decil</t>
   </si>
   <si>
@@ -145,6 +146,33 @@
   </si>
   <si>
     <t>10. decil</t>
+  </si>
+  <si>
+    <t>kod_fisk_mej</t>
+  </si>
+  <si>
+    <t>ovr_fode</t>
+  </si>
+  <si>
+    <t>bol</t>
+  </si>
+  <si>
+    <t>ene_hje</t>
+  </si>
+  <si>
+    <t>ene_tra</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>ovr_var</t>
+  </si>
+  <si>
+    <t>ovr_tje</t>
+  </si>
+  <si>
+    <t>Indkomstelasticiteter</t>
   </si>
 </sst>
 </file>
@@ -197,6 +225,7042 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Indkomstelasticiteter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1528832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0669858999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0412503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22978019999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94370659999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.354608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93710910000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3378899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53758709999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8448878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.47899890000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1524056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86532549999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0836927000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56532309999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47534959999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5531774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3554667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18385570000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3748608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.93144910000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69607399999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30323699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68257730000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72002390000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.337426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65126819999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8089896000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49802479999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.269558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82714279999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4162412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70443250000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0180041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76065450000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5624437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4406777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4650668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70858089999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3873492000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$F$16:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86630839999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9296907999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3350115000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.408256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9149949999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5829974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5237752000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5117326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2386979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3076413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$G$16:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8862407000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3529787999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7387031999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3178356999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.129664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9040381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3368156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47807830000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5566667999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26030900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$H$16:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.6240813999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4434195999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1700326000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3045654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2203326000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1204255999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3250115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61414959999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1815221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9706477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$I$16:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43911280000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45526040000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6868052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56082259999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60546080000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79715429999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22255620000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72525090000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4579785999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79646830000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A51A-461D-A0A0-35FB2DA37639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="587362712"/>
+        <c:axId val="587363040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="587362712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587363040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587363040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587362712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Priselasticiteter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7236962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35136450000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57372354999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63764383999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2869672400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29027037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1361772000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2148844400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.44229959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74451460000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.51033430999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.23985409999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51207846999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4769424600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1536054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15903589000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13212239000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.1103399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83673540000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6553087200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.79684109999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8113302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.07827611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50105310000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3374609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2143265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91734408000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0481302000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.38650060000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0309329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.54692980000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28970080999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26082401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13225095000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8886759999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96330101999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46579352000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.60719235000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8907003000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3644560000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.74003613199999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29209077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65386829999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16636235999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68432999000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92564902999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51567112000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.49872179999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13194312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.030991E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.35438363000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4354884999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6221379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8463301999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6744729971000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1443721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5005280999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49059487000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7405349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.079216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62007277999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64104346000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55639430999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60910582999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49922677999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43516339999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83317876000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.47276362999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27985412999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67283179999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14409959999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38679717000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60481607999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85756019000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19628000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13442480000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62129279999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99642865000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41883153400000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78010480000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5D4B-4281-95AB-EE258D041CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="588168232"/>
+        <c:axId val="588174464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588168232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588174464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588174464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588168232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Indkomstelasticiteter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1528832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47899890000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93144910000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82714279999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86630839999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8862407000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6240813999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43911280000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0669858999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1524056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69607399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4162412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9296907999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3529787999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4434195999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.45526040000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0412503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86532549999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30323699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70443250000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3350115000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7387031999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1700326000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6868052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.22978019999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0836927000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68257730000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0180041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.408256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3178356999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3045654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56082259999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.94370659999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56532309999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72002390000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76065450000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9149949999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.129664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2203326000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60546080000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.354608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47534959999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.337426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5624437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5829974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9040381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1204255999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79715429999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.93710910000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5531774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65126819999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4406777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5237752000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3368156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3250115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22255620000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.3378899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3554667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8089896000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4650668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5117326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47807830000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61414959999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72525090000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.53758709999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18385570000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49802479999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70858089999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2386979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5566667999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1815221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4579785999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$15:$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8448878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3748608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.269558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3873492000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3076413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26030900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9706477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79646830000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8C8A-4E77-A789-82DDE51CE31F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="730123152"/>
+        <c:axId val="730120200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="730123152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730120200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730120200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730123152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Priselasticiteter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7236962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.51033430999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.79684109999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54692980000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.74003613199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35438363000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62007277999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14409959999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.35136450000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.23985409999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8113302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28970080999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29209077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4354884999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64104346000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38679717000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.57372354999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51207846999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.07827611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26082401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65386829999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6221379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55639430999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60481607999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.63764383999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4769424600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50105310000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13225095000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.16636235999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8463301999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60910582999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85756019000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.2869672400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1536054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3374609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8886759999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68432999000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6744729971000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49922677999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19628000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.29027037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15903589000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2143265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96330101999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92564902999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1443721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43516339999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13442480000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1361772000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.13212239000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91734408000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46579352000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51567112000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5005280999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83317876000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62129279999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2148844400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1103399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0481302000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.60719235000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.49872179999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49059487000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.47276362999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99642865000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.44229959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83673540000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.38650060000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8907003000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13194312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7405349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27985412999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41883153400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Figure!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10. decil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Figure!$B$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>kod_fisk_mej</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ovr_fode</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bol</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ene_hje</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ene_tra</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>tra</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ovr_var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ovr_tje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Figure!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.74451460000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6553087200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0309329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3644560000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.030991E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.079216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67283179999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78010480000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E268-42E3-B1DA-BC469570DCB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="736692944"/>
+        <c:axId val="736688680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="736692944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="736688680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="736688680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="736692944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="62" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296400" cy="6063343"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296400" cy="6063343"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9303774" cy="6071419"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9303774" cy="6071419"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,395 +7526,970 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1.7236962</v>
+      </c>
+      <c r="C3">
+        <v>-0.51033430999999996</v>
+      </c>
+      <c r="D3">
+        <v>-0.79684109999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.54692980000000002</v>
+      </c>
+      <c r="F3">
+        <v>-0.74003613199999996</v>
+      </c>
+      <c r="G3">
+        <v>0.35438363000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.62007277999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.14409959999999999</v>
+      </c>
+      <c r="K3">
+        <f>B3*(-1)</f>
+        <v>-1.7236962</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:R3" si="0">C3*(-1)</f>
+        <v>0.51033430999999996</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.79684109999999997</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-0.54692980000000002</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.74003613199999996</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>-0.35438363000000001</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>-0.62007277999999999</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>-0.14409959999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4">
+        <v>0.35136450000000002</v>
+      </c>
+      <c r="C4">
+        <v>-0.23985409999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.8113302</v>
+      </c>
+      <c r="E4">
+        <v>0.28970080999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.29209077</v>
+      </c>
+      <c r="G4">
+        <v>3.4354884999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.64104346000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.38679717000000002</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="1">B4*(-1)</f>
+        <v>-0.35136450000000002</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="2">C4*(-1)</f>
+        <v>0.23985409999999999</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="3">D4*(-1)</f>
+        <v>-0.8113302</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="4">E4*(-1)</f>
+        <v>-0.28970080999999998</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O12" si="5">F4*(-1)</f>
+        <v>-0.29209077</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P12" si="6">G4*(-1)</f>
+        <v>-3.4354884999999999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q12" si="7">H4*(-1)</f>
+        <v>-0.64104346000000001</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R12" si="8">I4*(-1)</f>
+        <v>-0.38679717000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0.57372354999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.51207846999999995</v>
+      </c>
+      <c r="D5">
+        <v>1.07827611</v>
+      </c>
+      <c r="E5">
+        <v>0.26082401</v>
+      </c>
+      <c r="F5">
+        <v>0.65386829999999996</v>
+      </c>
+      <c r="G5">
+        <v>1.6221379</v>
+      </c>
+      <c r="H5">
+        <v>0.55639430999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.60481607999999998</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-0.57372354999999997</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>-0.51207846999999995</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>-1.07827611</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>-0.26082401</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>-0.65386829999999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>-1.6221379</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>-0.55639430999999995</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="8"/>
+        <v>-0.60481607999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.63764383999999996</v>
+      </c>
+      <c r="C6">
+        <v>1.4769424600000001</v>
+      </c>
+      <c r="D6">
+        <v>0.50105310000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.13225095000000001</v>
+      </c>
+      <c r="F6">
+        <v>-0.16636235999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.8463301999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.60910582999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.85756019000000006</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-0.63764383999999996</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>-1.4769424600000001</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>-0.50105310000000003</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-0.13225095000000001</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>0.16636235999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>-1.8463301999999999</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>-0.60910582999999996</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>-0.85756019000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2.2869672400000001</v>
+      </c>
+      <c r="C7">
+        <v>1.1536054</v>
+      </c>
+      <c r="D7">
+        <v>1.3374609</v>
+      </c>
+      <c r="E7">
+        <v>-3.8886759999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.68432999000000005</v>
+      </c>
+      <c r="G7">
+        <v>1.6744729971000001</v>
+      </c>
+      <c r="H7">
+        <v>0.49922677999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.19628000000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-2.2869672400000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>-1.1536054</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>-1.3374609</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>3.8886759999999999E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>-0.68432999000000005</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>-1.6744729971000001</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>-0.49922677999999998</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>-0.19628000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>1.29027037</v>
+      </c>
+      <c r="C8">
+        <v>0.15903589000000001</v>
+      </c>
+      <c r="D8">
+        <v>-0.2143265</v>
+      </c>
+      <c r="E8">
+        <v>0.96330101999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.92564902999999998</v>
+      </c>
+      <c r="G8">
+        <v>1.1443721</v>
+      </c>
+      <c r="H8">
+        <v>0.43516339999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.13442480000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-1.29027037</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>-0.15903589000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.2143265</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>-0.96330101999999995</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>-0.92564902999999998</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>-1.1443721</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>-0.43516339999999998</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>-0.13442480000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>1.1361772000000001</v>
+      </c>
+      <c r="C9">
+        <v>-0.13212239000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.91734408000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.46579352000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.51567112000000004</v>
+      </c>
+      <c r="G9">
+        <v>1.5005280999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.83317876000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.62129279999999998</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-1.1361772000000001</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.13212239000000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>-0.91734408000000001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>-0.46579352000000002</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>-0.51567112000000004</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>-1.5005280999999999</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>-0.83317876000000002</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>-0.62129279999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1.2148844400000001</v>
+      </c>
+      <c r="C10">
+        <v>-4.1103399999999998E-2</v>
+      </c>
+      <c r="D10">
+        <v>-2.0481302000000001</v>
+      </c>
+      <c r="E10">
+        <v>-0.60719235000000005</v>
+      </c>
+      <c r="F10">
+        <v>-0.49872179999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.49059487000000002</v>
+      </c>
+      <c r="H10">
+        <v>-0.47276362999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.99642865000000003</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-1.2148844400000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>4.1103399999999998E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>2.0481302000000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.60719235000000005</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0.49872179999999999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>-0.49059487000000002</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>0.47276362999999999</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>-0.99642865000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>1.44229959</v>
+      </c>
+      <c r="C11">
+        <v>0.83673540000000002</v>
+      </c>
+      <c r="D11">
+        <v>-0.38650060000000003</v>
+      </c>
+      <c r="E11">
+        <v>-3.8907003000000003E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.13194312</v>
+      </c>
+      <c r="G11">
+        <v>0.7405349</v>
+      </c>
+      <c r="H11">
+        <v>0.27985412999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.41883153400000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-1.44229959</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>-0.83673540000000002</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.38650060000000003</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>3.8907003000000003E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>-0.13194312</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>-0.7405349</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>-0.27985412999999998</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>-0.41883153400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>0.74451460000000003</v>
+      </c>
+      <c r="C12">
+        <v>1.6553087200000001</v>
+      </c>
+      <c r="D12">
+        <v>-1.0309329</v>
+      </c>
+      <c r="E12">
+        <v>8.3644560000000007E-2</v>
+      </c>
+      <c r="F12">
+        <v>-1.030991E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.079216</v>
+      </c>
+      <c r="H12">
+        <v>0.67283179999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.78010480000000004</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-0.74451460000000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>-1.6553087200000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.0309329</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>-8.3644560000000007E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>1.030991E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>-1.079216</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>-0.67283179999999998</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>-0.78010480000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
         <v>1.1528832</v>
       </c>
-      <c r="C4">
+      <c r="C16">
         <v>0.47899890000000001</v>
       </c>
-      <c r="D4">
+      <c r="D16">
         <v>0.93144910000000003</v>
       </c>
-      <c r="E4">
+      <c r="E16">
         <v>0.82714279999999996</v>
       </c>
-      <c r="F4">
+      <c r="F16">
         <v>0.86630839999999998</v>
       </c>
-      <c r="G4">
+      <c r="G16">
         <v>1.8862407000000001</v>
       </c>
-      <c r="H4">
+      <c r="H16">
         <v>1.6240813999999999</v>
       </c>
-      <c r="I4">
+      <c r="I16">
         <v>0.43911280000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-1.7236962</v>
-      </c>
-      <c r="C8">
-        <v>0.70191066000000002</v>
-      </c>
-      <c r="D8">
-        <v>1.1807858</v>
-      </c>
-      <c r="E8">
-        <v>0.13492409999999999</v>
-      </c>
-      <c r="F8">
-        <v>-0.457694029</v>
-      </c>
-      <c r="G8">
-        <v>-0.88967476999999995</v>
-      </c>
-      <c r="H8">
-        <v>0.65422455000000002</v>
-      </c>
-      <c r="I8">
-        <v>-0.75366337999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.349416</v>
-      </c>
-      <c r="C9">
-        <v>0.51033430999999996</v>
-      </c>
-      <c r="D9">
-        <v>-1.8347164</v>
-      </c>
-      <c r="E9">
-        <v>-0.96284029999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.201627783</v>
-      </c>
-      <c r="G9">
-        <v>0.35752391</v>
-      </c>
-      <c r="H9">
-        <v>0.19818134000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.70147440999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.28916969999999997</v>
-      </c>
-      <c r="C10">
-        <v>-1.02061198</v>
-      </c>
-      <c r="D10">
-        <v>0.79684109999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.978715</v>
-      </c>
-      <c r="F10">
-        <v>-0.58147294800000004</v>
-      </c>
-      <c r="G10">
-        <v>-0.16395370000000001</v>
-      </c>
-      <c r="H10">
-        <v>-0.63056615000000005</v>
-      </c>
-      <c r="I10">
-        <v>-0.59956997999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.11127190000000001</v>
-      </c>
-      <c r="C11">
-        <v>-1.53990439</v>
-      </c>
-      <c r="D11">
-        <v>2.9161831</v>
-      </c>
-      <c r="E11">
-        <v>-0.54692980000000002</v>
-      </c>
-      <c r="F11">
-        <v>-0.14672696900000001</v>
-      </c>
-      <c r="G11">
-        <v>-1.47484945</v>
-      </c>
-      <c r="H11">
-        <v>0.54637336000000003</v>
-      </c>
-      <c r="I11">
-        <v>-0.69256048999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-0.99752960000000002</v>
-      </c>
-      <c r="C12">
-        <v>0.95268818</v>
-      </c>
-      <c r="D12">
-        <v>-5.4684366000000004</v>
-      </c>
-      <c r="E12">
-        <v>-0.4712558</v>
-      </c>
-      <c r="F12">
-        <v>0.74003613199999996</v>
-      </c>
-      <c r="G12">
-        <v>2.4924752099999998</v>
-      </c>
-      <c r="H12">
-        <v>7.5286259999999994E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.8104277499999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-0.56266959999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.30211272</v>
-      </c>
-      <c r="D13">
-        <v>-0.63276909999999997</v>
-      </c>
-      <c r="E13">
-        <v>-1.3342011</v>
-      </c>
-      <c r="F13">
-        <v>0.63719583899999999</v>
-      </c>
-      <c r="G13">
-        <v>-0.35438363000000001</v>
-      </c>
-      <c r="H13">
-        <v>-1.1067219999999999E-2</v>
-      </c>
-      <c r="I13">
-        <v>6.9541309999999995E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.15730189999999999</v>
-      </c>
-      <c r="C14">
-        <v>-1.311815E-2</v>
-      </c>
-      <c r="D14">
-        <v>-0.91126110000000005</v>
-      </c>
-      <c r="E14">
-        <v>0.15732499999999999</v>
-      </c>
-      <c r="F14">
-        <v>-9.0618009999999995E-3</v>
-      </c>
-      <c r="G14">
-        <v>1.8113560000000001E-2</v>
-      </c>
-      <c r="H14">
-        <v>-0.62007277999999999</v>
-      </c>
-      <c r="I14">
-        <v>-0.4033081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-0.1603859</v>
-      </c>
-      <c r="C15">
-        <v>0.41838895999999998</v>
-      </c>
-      <c r="D15">
-        <v>-0.55975870000000005</v>
-      </c>
-      <c r="E15">
-        <v>-0.23281080000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.22638883200000001</v>
-      </c>
-      <c r="G15">
-        <v>0.16492440999999999</v>
-      </c>
-      <c r="H15">
-        <v>-0.15175992999999999</v>
-      </c>
-      <c r="I15">
-        <v>-0.14409959999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>1.0669858999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.1524056</v>
+      </c>
+      <c r="D17">
+        <v>0.69607399999999997</v>
+      </c>
+      <c r="E17">
+        <v>1.4162412</v>
+      </c>
+      <c r="F17">
+        <v>2.9296907999999999</v>
+      </c>
+      <c r="G17">
+        <v>3.3529787999999998</v>
+      </c>
+      <c r="H17">
+        <v>1.4434195999999999</v>
+      </c>
+      <c r="I17">
+        <v>-0.45526040000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
       <c r="B18">
-        <f>B8</f>
-        <v>-1.7236962</v>
+        <v>1.0412503</v>
       </c>
       <c r="C18">
-        <f>C9</f>
-        <v>0.51033430999999996</v>
+        <v>0.86532549999999997</v>
       </c>
       <c r="D18">
-        <f>D10</f>
-        <v>0.79684109999999997</v>
+        <v>0.30323699999999998</v>
       </c>
       <c r="E18">
-        <f>E11</f>
-        <v>-0.54692980000000002</v>
+        <v>0.70443250000000002</v>
       </c>
       <c r="F18">
-        <f>F12</f>
-        <v>0.74003613199999996</v>
+        <v>4.3350115000000002</v>
       </c>
       <c r="G18">
-        <f>G13</f>
-        <v>-0.35438363000000001</v>
+        <v>2.7387031999999998</v>
       </c>
       <c r="H18">
-        <f>H14</f>
-        <v>-0.62007277999999999</v>
+        <v>1.1700326000000001</v>
       </c>
       <c r="I18">
-        <f>I15</f>
-        <v>-0.14409959999999999</v>
+        <v>0.6868052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0.22978019999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.0836927000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.68257730000000005</v>
+      </c>
+      <c r="E19">
+        <v>1.0180041</v>
+      </c>
+      <c r="F19">
+        <v>1.408256</v>
+      </c>
+      <c r="G19">
+        <v>2.3178356999999998</v>
+      </c>
+      <c r="H19">
+        <v>1.3045654</v>
+      </c>
+      <c r="I19">
+        <v>0.56082259999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0.94370659999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.56532309999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.72002390000000005</v>
+      </c>
+      <c r="E20">
+        <v>0.76065450000000001</v>
+      </c>
+      <c r="F20">
+        <v>2.9149949999999998</v>
+      </c>
+      <c r="G20">
+        <v>2.129664</v>
+      </c>
+      <c r="H20">
+        <v>1.2203326000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.60546080000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1.354608</v>
+      </c>
+      <c r="C21">
+        <v>0.47534959999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.337426</v>
+      </c>
+      <c r="E21">
+        <v>1.5624437</v>
+      </c>
+      <c r="F21">
+        <v>2.5829974</v>
+      </c>
+      <c r="G21">
+        <v>1.9040381</v>
+      </c>
+      <c r="H21">
+        <v>1.1204255999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.79715429999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>0.93710910000000003</v>
+      </c>
+      <c r="C22">
+        <v>1.5531774</v>
+      </c>
+      <c r="D22">
+        <v>0.65126819999999996</v>
+      </c>
+      <c r="E22">
+        <v>1.4406777</v>
+      </c>
+      <c r="F22">
+        <v>2.5237752000000002</v>
+      </c>
+      <c r="G22">
+        <v>1.3368156</v>
+      </c>
+      <c r="H22">
+        <v>1.3250115</v>
+      </c>
+      <c r="I22">
+        <v>0.22255620000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>1.3378899</v>
+      </c>
+      <c r="C23">
+        <v>1.3554667</v>
+      </c>
+      <c r="D23">
+        <v>1.8089896000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.4650668</v>
+      </c>
+      <c r="F23">
+        <v>1.5117326</v>
+      </c>
+      <c r="G23">
+        <v>0.47807830000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.61414959999999996</v>
+      </c>
+      <c r="I23">
+        <v>0.72525090000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>0.53758709999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.18385570000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.49802479999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.70858089999999996</v>
+      </c>
+      <c r="F24">
+        <v>1.2386979</v>
+      </c>
+      <c r="G24">
+        <v>1.5566667999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.1815221</v>
+      </c>
+      <c r="I24">
+        <v>1.4579785999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>1.8448878</v>
+      </c>
+      <c r="C25">
+        <v>1.3748608</v>
+      </c>
+      <c r="D25">
+        <v>1.269558</v>
+      </c>
+      <c r="E25">
+        <v>1.3873492000000001</v>
+      </c>
+      <c r="F25">
+        <v>1.3076413</v>
+      </c>
+      <c r="G25">
+        <v>0.26030900000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.9706477</v>
+      </c>
+      <c r="I25">
+        <v>0.79646830000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1656,602 +9295,395 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>-1.7236962</v>
-      </c>
-      <c r="C3">
-        <v>0.51033430999999996</v>
-      </c>
-      <c r="D3">
-        <v>0.79684109999999997</v>
-      </c>
-      <c r="E3">
-        <v>-0.54692980000000002</v>
-      </c>
-      <c r="F3">
-        <v>0.74003613199999996</v>
-      </c>
-      <c r="G3">
-        <v>-0.35438363000000001</v>
-      </c>
-      <c r="H3">
-        <v>-0.62007277999999999</v>
-      </c>
-      <c r="I3">
-        <v>-0.14409959999999999</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
       <c r="B4">
-        <v>-0.35136450000000002</v>
+        <v>1.1528832</v>
       </c>
       <c r="C4">
-        <v>0.23985409999999999</v>
+        <v>0.47899890000000001</v>
       </c>
       <c r="D4">
-        <v>-0.8113302</v>
+        <v>0.93144910000000003</v>
       </c>
       <c r="E4">
-        <v>-0.28970080999999998</v>
+        <v>0.82714279999999996</v>
       </c>
       <c r="F4">
-        <v>-0.29209077</v>
+        <v>0.86630839999999998</v>
       </c>
       <c r="G4">
-        <v>-3.4354884999999999</v>
+        <v>1.8862407000000001</v>
       </c>
       <c r="H4">
-        <v>-0.64104346000000001</v>
+        <v>1.6240813999999999</v>
       </c>
       <c r="I4">
-        <v>-0.38679717000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>-0.57372354999999997</v>
-      </c>
-      <c r="C5">
-        <v>-0.51207846999999995</v>
-      </c>
-      <c r="D5">
-        <v>-1.07827611</v>
-      </c>
-      <c r="E5">
-        <v>-0.26082401</v>
-      </c>
-      <c r="F5">
-        <v>-0.65386829999999996</v>
-      </c>
-      <c r="G5">
-        <v>-1.6221379</v>
-      </c>
-      <c r="H5">
-        <v>-0.55639430999999995</v>
-      </c>
-      <c r="I5">
-        <v>-0.60481607999999998</v>
+        <v>0.43911280000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>-0.63764383999999996</v>
-      </c>
-      <c r="C6">
-        <v>-1.4769424600000001</v>
-      </c>
-      <c r="D6">
-        <v>-0.50105310000000003</v>
-      </c>
-      <c r="E6">
-        <v>-0.13225095000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.16636235999999999</v>
-      </c>
-      <c r="G6">
-        <v>-1.8463301999999999</v>
-      </c>
-      <c r="H6">
-        <v>-0.60910582999999996</v>
-      </c>
-      <c r="I6">
-        <v>-0.85756019000000006</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>-2.2869672400000001</v>
-      </c>
-      <c r="C7">
-        <v>-1.1536054</v>
-      </c>
-      <c r="D7">
-        <v>-1.3374609</v>
-      </c>
-      <c r="E7">
-        <v>3.8886759999999999E-2</v>
-      </c>
-      <c r="F7">
-        <v>-0.68432999000000005</v>
-      </c>
-      <c r="G7">
-        <v>-1.6744729971000001</v>
-      </c>
-      <c r="H7">
-        <v>-0.49922677999999998</v>
-      </c>
-      <c r="I7">
-        <v>-0.19628000000000001</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.29027037</v>
+        <v>-1.7236962</v>
       </c>
       <c r="C8">
-        <v>-0.15903589000000001</v>
+        <v>0.70191066000000002</v>
       </c>
       <c r="D8">
-        <v>0.2143265</v>
+        <v>1.1807858</v>
       </c>
       <c r="E8">
-        <v>-0.96330101999999995</v>
+        <v>0.13492409999999999</v>
       </c>
       <c r="F8">
-        <v>-0.92564902999999998</v>
+        <v>-0.457694029</v>
       </c>
       <c r="G8">
-        <v>-1.1443721</v>
+        <v>-0.88967476999999995</v>
       </c>
       <c r="H8">
-        <v>-0.43516339999999998</v>
+        <v>0.65422455000000002</v>
       </c>
       <c r="I8">
-        <v>-0.13442480000000001</v>
+        <v>-0.75366337999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.1361772000000001</v>
+        <v>0.349416</v>
       </c>
       <c r="C9">
-        <v>0.13212239000000001</v>
+        <v>0.51033430999999996</v>
       </c>
       <c r="D9">
-        <v>-0.91734408000000001</v>
+        <v>-1.8347164</v>
       </c>
       <c r="E9">
-        <v>-0.46579352000000002</v>
+        <v>-0.96284029999999998</v>
       </c>
       <c r="F9">
-        <v>-0.51567112000000004</v>
+        <v>0.201627783</v>
       </c>
       <c r="G9">
-        <v>-1.5005280999999999</v>
+        <v>0.35752391</v>
       </c>
       <c r="H9">
-        <v>-0.83317876000000002</v>
+        <v>0.19818134000000001</v>
       </c>
       <c r="I9">
-        <v>-0.62129279999999998</v>
+        <v>0.70147440999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.2148844400000001</v>
+        <v>0.28916969999999997</v>
       </c>
       <c r="C10">
-        <v>4.1103399999999998E-2</v>
+        <v>-1.02061198</v>
       </c>
       <c r="D10">
-        <v>2.0481302000000001</v>
+        <v>0.79684109999999997</v>
       </c>
       <c r="E10">
-        <v>0.60719235000000005</v>
+        <v>0.978715</v>
       </c>
       <c r="F10">
-        <v>0.49872179999999999</v>
+        <v>-0.58147294800000004</v>
       </c>
       <c r="G10">
-        <v>-0.49059487000000002</v>
+        <v>-0.16395370000000001</v>
       </c>
       <c r="H10">
-        <v>0.47276362999999999</v>
+        <v>-0.63056615000000005</v>
       </c>
       <c r="I10">
-        <v>-0.99642865000000003</v>
+        <v>-0.59956997999999995</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.44229959</v>
+        <v>0.11127190000000001</v>
       </c>
       <c r="C11">
-        <v>-0.83673540000000002</v>
+        <v>-1.53990439</v>
       </c>
       <c r="D11">
-        <v>0.38650060000000003</v>
+        <v>2.9161831</v>
       </c>
       <c r="E11">
-        <v>3.8907003000000003E-2</v>
+        <v>-0.54692980000000002</v>
       </c>
       <c r="F11">
-        <v>-0.13194312</v>
+        <v>-0.14672696900000001</v>
       </c>
       <c r="G11">
-        <v>-0.7405349</v>
+        <v>-1.47484945</v>
       </c>
       <c r="H11">
-        <v>-0.27985412999999998</v>
+        <v>0.54637336000000003</v>
       </c>
       <c r="I11">
-        <v>-0.41883153400000001</v>
+        <v>-0.69256048999999997</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.74451460000000003</v>
+        <v>-0.99752960000000002</v>
       </c>
       <c r="C12">
-        <v>-1.6553087200000001</v>
+        <v>0.95268818</v>
       </c>
       <c r="D12">
-        <v>1.0309329</v>
+        <v>-5.4684366000000004</v>
       </c>
       <c r="E12">
-        <v>-8.3644560000000007E-2</v>
+        <v>-0.4712558</v>
       </c>
       <c r="F12">
-        <v>1.030991E-2</v>
+        <v>0.74003613199999996</v>
       </c>
       <c r="G12">
-        <v>-1.079216</v>
+        <v>2.4924752099999998</v>
       </c>
       <c r="H12">
-        <v>-0.67283179999999998</v>
+        <v>7.5286259999999994E-2</v>
       </c>
       <c r="I12">
-        <v>-0.78010480000000004</v>
+        <v>1.8104277499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.56266959999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.30211272</v>
+      </c>
+      <c r="D13">
+        <v>-0.63276909999999997</v>
+      </c>
+      <c r="E13">
+        <v>-1.3342011</v>
+      </c>
+      <c r="F13">
+        <v>0.63719583899999999</v>
+      </c>
+      <c r="G13">
+        <v>-0.35438363000000001</v>
+      </c>
+      <c r="H13">
+        <v>-1.1067219999999999E-2</v>
+      </c>
+      <c r="I13">
+        <v>6.9541309999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.15730189999999999</v>
+      </c>
+      <c r="C14">
+        <v>-1.311815E-2</v>
+      </c>
+      <c r="D14">
+        <v>-0.91126110000000005</v>
+      </c>
+      <c r="E14">
+        <v>0.15732499999999999</v>
+      </c>
+      <c r="F14">
+        <v>-9.0618009999999995E-3</v>
+      </c>
+      <c r="G14">
+        <v>1.8113560000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.62007277999999999</v>
+      </c>
+      <c r="I14">
+        <v>-0.4033081</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1.1528832</v>
-      </c>
-      <c r="C16">
-        <v>0.47899890000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.93144910000000003</v>
-      </c>
-      <c r="E16">
-        <v>0.82714279999999996</v>
-      </c>
-      <c r="F16">
-        <v>0.86630839999999998</v>
-      </c>
-      <c r="G16">
-        <v>1.8862407000000001</v>
-      </c>
-      <c r="H16">
-        <v>1.6240813999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.43911280000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>1.0669858999999999</v>
-      </c>
-      <c r="C17">
-        <v>1.1524056</v>
-      </c>
-      <c r="D17">
-        <v>0.69607399999999997</v>
-      </c>
-      <c r="E17">
-        <v>1.4162412</v>
-      </c>
-      <c r="F17">
-        <v>2.9296907999999999</v>
-      </c>
-      <c r="G17">
-        <v>3.3529787999999998</v>
-      </c>
-      <c r="H17">
-        <v>1.4434195999999999</v>
-      </c>
-      <c r="I17">
-        <v>-0.45526040000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.1603859</v>
+      </c>
+      <c r="C15">
+        <v>0.41838895999999998</v>
+      </c>
+      <c r="D15">
+        <v>-0.55975870000000005</v>
+      </c>
+      <c r="E15">
+        <v>-0.23281080000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.22638883200000001</v>
+      </c>
+      <c r="G15">
+        <v>0.16492440999999999</v>
+      </c>
+      <c r="H15">
+        <v>-0.15175992999999999</v>
+      </c>
+      <c r="I15">
+        <v>-0.14409959999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>1.0412503</v>
+        <f>B8</f>
+        <v>-1.7236962</v>
       </c>
       <c r="C18">
-        <v>0.86532549999999997</v>
+        <f>C9</f>
+        <v>0.51033430999999996</v>
       </c>
       <c r="D18">
-        <v>0.30323699999999998</v>
+        <f>D10</f>
+        <v>0.79684109999999997</v>
       </c>
       <c r="E18">
-        <v>0.70443250000000002</v>
+        <f>E11</f>
+        <v>-0.54692980000000002</v>
       </c>
       <c r="F18">
-        <v>4.3350115000000002</v>
+        <f>F12</f>
+        <v>0.74003613199999996</v>
       </c>
       <c r="G18">
-        <v>2.7387031999999998</v>
+        <f>G13</f>
+        <v>-0.35438363000000001</v>
       </c>
       <c r="H18">
-        <v>1.1700326000000001</v>
+        <f>H14</f>
+        <v>-0.62007277999999999</v>
       </c>
       <c r="I18">
-        <v>0.6868052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>0.22978019999999999</v>
-      </c>
-      <c r="C19">
-        <v>1.0836927000000001</v>
-      </c>
-      <c r="D19">
-        <v>0.68257730000000005</v>
-      </c>
-      <c r="E19">
-        <v>1.0180041</v>
-      </c>
-      <c r="F19">
-        <v>1.408256</v>
-      </c>
-      <c r="G19">
-        <v>2.3178356999999998</v>
-      </c>
-      <c r="H19">
-        <v>1.3045654</v>
-      </c>
-      <c r="I19">
-        <v>0.56082259999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>0.94370659999999995</v>
-      </c>
-      <c r="C20">
-        <v>0.56532309999999997</v>
-      </c>
-      <c r="D20">
-        <v>0.72002390000000005</v>
-      </c>
-      <c r="E20">
-        <v>0.76065450000000001</v>
-      </c>
-      <c r="F20">
-        <v>2.9149949999999998</v>
-      </c>
-      <c r="G20">
-        <v>2.129664</v>
-      </c>
-      <c r="H20">
-        <v>1.2203326000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.60546080000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1.354608</v>
-      </c>
-      <c r="C21">
-        <v>0.47534959999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.337426</v>
-      </c>
-      <c r="E21">
-        <v>1.5624437</v>
-      </c>
-      <c r="F21">
-        <v>2.5829974</v>
-      </c>
-      <c r="G21">
-        <v>1.9040381</v>
-      </c>
-      <c r="H21">
-        <v>1.1204255999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.79715429999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>0.93710910000000003</v>
-      </c>
-      <c r="C22">
-        <v>1.5531774</v>
-      </c>
-      <c r="D22">
-        <v>0.65126819999999996</v>
-      </c>
-      <c r="E22">
-        <v>1.4406777</v>
-      </c>
-      <c r="F22">
-        <v>2.5237752000000002</v>
-      </c>
-      <c r="G22">
-        <v>1.3368156</v>
-      </c>
-      <c r="H22">
-        <v>1.3250115</v>
-      </c>
-      <c r="I22">
-        <v>0.22255620000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>1.3378899</v>
-      </c>
-      <c r="C23">
-        <v>1.3554667</v>
-      </c>
-      <c r="D23">
-        <v>1.8089896000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.4650668</v>
-      </c>
-      <c r="F23">
-        <v>1.5117326</v>
-      </c>
-      <c r="G23">
-        <v>0.47807830000000001</v>
-      </c>
-      <c r="H23">
-        <v>0.61414959999999996</v>
-      </c>
-      <c r="I23">
-        <v>0.72525090000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
-        <v>0.53758709999999998</v>
-      </c>
-      <c r="C24">
-        <v>0.18385570000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.49802479999999999</v>
-      </c>
-      <c r="E24">
-        <v>0.70858089999999996</v>
-      </c>
-      <c r="F24">
-        <v>1.2386979</v>
-      </c>
-      <c r="G24">
-        <v>1.5566667999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.1815221</v>
-      </c>
-      <c r="I24">
-        <v>1.4579785999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
-        <v>1.8448878</v>
-      </c>
-      <c r="C25">
-        <v>1.3748608</v>
-      </c>
-      <c r="D25">
-        <v>1.269558</v>
-      </c>
-      <c r="E25">
-        <v>1.3873492000000001</v>
-      </c>
-      <c r="F25">
-        <v>1.3076413</v>
-      </c>
-      <c r="G25">
-        <v>0.26030900000000001</v>
-      </c>
-      <c r="H25">
-        <v>0.9706477</v>
-      </c>
-      <c r="I25">
-        <v>0.79646830000000002</v>
+        <f>I15</f>
+        <v>-0.14409959999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +9696,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AIDS/Elasticiteter.xlsx
+++ b/AIDS/Elasticiteter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ind_elas_deciler" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="54">
   <si>
     <t>Demand</t>
   </si>
@@ -173,6 +173,33 @@
   </si>
   <si>
     <t>Indkomstelasticiteter</t>
+  </si>
+  <si>
+    <t>kod og energi</t>
+  </si>
+  <si>
+    <t>bolig og tjenester</t>
+  </si>
+  <si>
+    <t>transport,ævrig varer og fødevarer</t>
+  </si>
+  <si>
+    <t>Lav</t>
+  </si>
+  <si>
+    <t>Middel</t>
+  </si>
+  <si>
+    <t>Høj</t>
+  </si>
+  <si>
+    <t># historie: middelklassen reagere mest på priserne</t>
+  </si>
+  <si>
+    <t># lavindkomstgrupper reagere mere end højindkomstgruper</t>
+  </si>
+  <si>
+    <t># bortset fra bolig og tjenester, der er pris elas positiv for højindkomst for bolig og tjenester</t>
   </si>
 </sst>
 </file>
@@ -7137,7 +7164,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7148,7 +7175,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7159,7 +7186,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6063343"/>
+    <xdr:ext cx="9285514" cy="6063343"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
@@ -7186,7 +7213,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6063343"/>
+    <xdr:ext cx="9285514" cy="6063343"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
@@ -7213,7 +7240,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303774" cy="6071419"/>
+    <xdr:ext cx="9285514" cy="6063343"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
@@ -7240,7 +7267,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303774" cy="6071419"/>
+    <xdr:ext cx="9285514" cy="6063343"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
@@ -7526,10 +7553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R25"/>
+  <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8231,7 +8258,7 @@
         <v>0.43911280000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8260,7 +8287,7 @@
         <v>-0.45526040000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -8289,7 +8316,7 @@
         <v>0.6868052</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -8318,7 +8345,7 @@
         <v>0.56082259999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -8347,7 +8374,7 @@
         <v>0.60546080000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -8376,7 +8403,7 @@
         <v>0.79715429999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -8405,7 +8432,7 @@
         <v>0.22255620000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -8434,7 +8461,7 @@
         <v>0.72525090000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -8463,7 +8490,7 @@
         <v>1.4579785999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -8490,6 +8517,463 @@
       </c>
       <c r="I25">
         <v>0.79646830000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>45</v>
+      </c>
+      <c r="R26" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B16,B16,E16,F16)</f>
+        <v>0.99980439999999993</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(D16,I16)</f>
+        <v>0.68528095</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(C16,G16,H16)</f>
+        <v>1.3297736666666669</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(B27:B29)</f>
+        <v>1.4667554999999999</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:I27" si="9">AVERAGE(C27:C29)</f>
+        <v>0.43356961666666666</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>1.6346873666666666</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE(B3,E3,F3)</f>
+        <v>0.51019662266666665</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE(D3,I3)</f>
+        <v>-0.32637074999999999</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGE(C3,G3,G3,H3)</f>
+        <v>0.20462643250000001</v>
+      </c>
+      <c r="P27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27">
+        <f>AVERAGE(L27:L29)</f>
+        <v>0.43912908977777776</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27" si="10">AVERAGE(M27:M29)</f>
+        <v>0.37141300999999999</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27" si="11">AVERAGE(N27:N29)</f>
+        <v>1.0336183891666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B36" si="12">AVERAGE(B17,B17,E17,F17)</f>
+        <v>1.6199759499999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C36" si="13">AVERAGE(D17,I17)</f>
+        <v>0.12040679999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D36" si="14">AVERAGE(C17,G17,H17)</f>
+        <v>1.9829346666666663</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(B30:B33)</f>
+        <v>1.3213882124999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:I28" si="15">AVERAGE(C30:C33)</f>
+        <v>0.57216116250000004</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="15"/>
+        <v>1.3613526083333334</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L36" si="16">AVERAGE(B4,E4,F4)</f>
+        <v>0.3110520266666667</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M36" si="17">AVERAGE(D4,I4)</f>
+        <v>0.59906368499999996</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N36" si="18">AVERAGE(C4,G4,G4,H4)</f>
+        <v>1.8180415899999998</v>
+      </c>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28">
+        <f>AVERAGE(L30:L33)</f>
+        <v>0.7360670966666667</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ref="R28" si="19">AVERAGE(M30:M33)</f>
+        <v>0.54388617124999994</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28" si="20">AVERAGE(N30:N33)</f>
+        <v>1.0853464327625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="12"/>
+        <v>1.78048615</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="13"/>
+        <v>0.49502109999999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="14"/>
+        <v>1.5913537666666666</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(B34:B36)</f>
+        <v>1.1716498583333335</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:I29" si="21">AVERAGE(C34:C36)</f>
+        <v>1.0927117</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="21"/>
+        <v>0.88617296666666656</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="16"/>
+        <v>0.49613861999999997</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="17"/>
+        <v>0.84154609499999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="18"/>
+        <v>1.078187145</v>
+      </c>
+      <c r="P29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(L34:L36)</f>
+        <v>0.27357280522222222</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29" si="22">AVERAGE(M34:M36)</f>
+        <v>-0.21169978600000006</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29" si="23">AVERAGE(N34:N36)</f>
+        <v>0.6292962133333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="12"/>
+        <v>0.72145512499999997</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="13"/>
+        <v>0.62169995</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="14"/>
+        <v>1.5686979333333333</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="16"/>
+        <v>0.20117747666666666</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="17"/>
+        <v>0.67930664500000004</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="18"/>
+        <v>1.4446771724999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="12"/>
+        <v>1.3907656749999999</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="13"/>
+        <v>0.66274235000000004</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="14"/>
+        <v>1.3051065666666668</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="16"/>
+        <v>0.9774701566666667</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="17"/>
+        <v>0.76687044999999998</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="18"/>
+        <v>1.25044454355</v>
+      </c>
+      <c r="P31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="12"/>
+        <v>1.713664275</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="13"/>
+        <v>0.56729015000000005</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="14"/>
+        <v>1.1666044333333334</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="16"/>
+        <v>1.0597401399999999</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="17"/>
+        <v>-3.9950849999999996E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="18"/>
+        <v>0.72073587250000004</v>
+      </c>
+      <c r="P32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="12"/>
+        <v>1.459667775</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="13"/>
+        <v>0.43691219999999997</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="14"/>
+        <v>1.4050015</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="16"/>
+        <v>0.70588061333333341</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="17"/>
+        <v>0.76931843999999994</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="18"/>
+        <v>0.92552814249999993</v>
+      </c>
+      <c r="P33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="12"/>
+        <v>1.1631448</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="13"/>
+        <v>1.2671202500000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="14"/>
+        <v>0.81589820000000002</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="16"/>
+        <v>3.6323430000000011E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="17"/>
+        <v>-0.5258507750000001</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="18"/>
+        <v>0.11683067750000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="12"/>
+        <v>0.75561325000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="13"/>
+        <v>0.97800169999999997</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="14"/>
+        <v>0.9740148666666667</v>
+      </c>
+      <c r="K35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="16"/>
+        <v>0.51177856899999996</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="17"/>
+        <v>1.6165466999999989E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="18"/>
+        <v>0.64941483249999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="12"/>
+        <v>1.5961915250000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="13"/>
+        <v>1.0330131499999999</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="14"/>
+        <v>0.86860583333333319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="16"/>
+        <v>0.27261641666666664</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="17"/>
+        <v>-0.12541405</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="18"/>
+        <v>1.12164313</v>
       </c>
     </row>
   </sheetData>
